--- a/resources/GSTR1/Notes.xlsx
+++ b/resources/GSTR1/Notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GINF2_2021_2022\XML\Projet_Gestion_Scolarite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GSTR1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEB600D-4028-4587-BD4D-730736DB4C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A917EAD0-AB9A-4445-BACC-B2F063D01440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{203F551E-58BE-4A2E-BFDB-4C870897D58E}"/>
   </bookViews>
@@ -185,9 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DDC0FA-A10B-4957-A792-2F7FC086EBD0}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,14 +515,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -561,13 +562,13 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>19000031</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2">
+        <v>19000001</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2">
@@ -608,13 +609,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>19000032</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2">
+        <v>19000002</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3">
@@ -655,13 +656,13 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>19000033</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2">
+        <v>19000003</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4">
@@ -702,13 +703,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>19000034</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2">
+        <v>19000004</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5">
@@ -749,13 +750,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>19000035</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2">
+        <v>19000005</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6">
@@ -796,13 +797,13 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>19000036</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2">
+        <v>19000006</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7">
@@ -843,13 +844,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>19000037</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2">
+        <v>19000007</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8">
@@ -890,13 +891,13 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>19000038</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2">
+        <v>19000008</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9">
@@ -937,13 +938,13 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>19000039</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2">
+        <v>19000009</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D10">
@@ -984,13 +985,13 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>19000040</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2">
+        <v>19000010</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11">

--- a/resources/GSTR1/Notes.xlsx
+++ b/resources/GSTR1/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GSTR1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A917EAD0-AB9A-4445-BACC-B2F063D01440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C5415C-EC62-40C1-8F3F-F8E7F33F18A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{203F551E-58BE-4A2E-BFDB-4C870897D58E}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,10 +519,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -566,10 +566,10 @@
         <v>19000001</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -613,10 +613,10 @@
         <v>19000002</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -660,10 +660,10 @@
         <v>19000003</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -707,10 +707,10 @@
         <v>19000004</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -754,10 +754,10 @@
         <v>19000005</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -801,10 +801,10 @@
         <v>19000006</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -848,10 +848,10 @@
         <v>19000007</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -895,10 +895,10 @@
         <v>19000008</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -942,10 +942,10 @@
         <v>19000009</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -989,10 +989,10 @@
         <v>19000010</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D11">
         <v>13</v>
